--- a/data/trans_dic/P17_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud mental autopercibida regular o mala</t>
+          <t>Población con salud mental autopercibida regular o mala (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>18,14%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>22,94%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>25,22%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,3; 22,37</t>
+          <t>6,84; 21,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 27,52</t>
+          <t>7,97; 21,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,64; 22,25</t>
+          <t>13,95; 25,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,29; 22,7</t>
+          <t>11,88; 21,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,62; 24,79</t>
+          <t>11,7; 27,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,7; 34,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,68; 28,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,87; 30,03</t>
+          <t>20,67; 37,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,9; 41,63</t>
+          <t>15,1; 29,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,54; 30,69</t>
+          <t>21,41; 31,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,73; 28,0</t>
+          <t>23,46; 32,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,69; 25,63</t>
+          <t>22,44; 40,49</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,39; 24,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>20,93; 31,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>18,92; 26,0</t>
+          <t>15,68; 27,31</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>13,57; 23,51</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>19,04; 26,95</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>19,72; 26,61</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>19,63; 32,33</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>19,92%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>12,31%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>14,42%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>17,57%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,66; 17,3</t>
+          <t>10,93; 24,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,52</t>
+          <t>3,91; 9,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,65; 11,7</t>
+          <t>6,56; 12,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,85; 15,27</t>
+          <t>9,17; 16,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,89</t>
+          <t>11,39; 24,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,58; 26,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,81; 15,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 16,35</t>
+          <t>19,36; 29,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,02; 19,84</t>
+          <t>10,39; 18,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 26,22</t>
+          <t>12,37; 18,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 20,43</t>
+          <t>14,26; 21,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 11,13</t>
+          <t>15,35; 24,44</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,48; 12,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,01; 16,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>13,26; 18,21</t>
+          <t>16,64; 24,39</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8,19; 13,55</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>10,33; 14,75</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>12,17; 16,71</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>14,35; 22,03</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>11,96%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>12,23%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 14,1</t>
+          <t>4,17; 11,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 11,25</t>
+          <t>2,43; 7,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,92</t>
+          <t>3,81; 8,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 12,59</t>
+          <t>6,46; 12,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 15,84</t>
+          <t>6,96; 19,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,23; 20,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 10,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,46; 15,91</t>
+          <t>15,23; 25,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 17,61</t>
+          <t>6,24; 13,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 19,68</t>
+          <t>10,82; 17,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,32; 16,28</t>
+          <t>11,81; 17,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,81</t>
+          <t>9,98; 17,33</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 12,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,73; 13,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>10,24; 16,07</t>
+          <t>10,81; 17,67</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5,19; 9,61</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8,1; 12,29</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>9,98; 14,08</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>9,64; 16,28</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>18,24%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11,88%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>12,36%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>13,21%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,36</t>
+          <t>11,16; 16,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,8</t>
+          <t>6,9; 15,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,97</t>
+          <t>5,94; 13,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 14,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,97; 15,14</t>
+          <t>5,46; 11,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,13; 25,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 15,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,77; 18,58</t>
+          <t>20,12; 25,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,66; 22,91</t>
+          <t>10,73; 16,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,96; 24,09</t>
+          <t>12,15; 20,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,75; 19,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,51; 12,48</t>
+          <t>14,55; 24,33</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 15,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>14,44; 17,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>15,29; 18,85</t>
+          <t>16,34; 20,2</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>9,87; 15,15</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9,78; 15,2</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>10,66; 16,38</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11,93%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12,64%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23,1%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13,66%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,96%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,04%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>18,19%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>11,07%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>15,55%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>16,16%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11,1; 15,37</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 10,78</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8,34; 11,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10,03; 14,18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10,43; 15,97</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20,95; 25,37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11,77; 15,73</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15,15; 18,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17,24; 21,24</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17,3; 22,57</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>16,65; 19,69</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 12,63</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 15,0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>14,15; 16,98</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>14,52; 18,27</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud mental autopercibida regular o mala (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29237</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>43433</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>99302</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>119038</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>84280</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>74094</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>89287</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>165671</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>248168</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>191286</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>103332</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>132720</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>264973</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>367206</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>275567</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15367; 48552</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24697; 67576</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>73138; 135489</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>85791; 155342</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>52334; 125022</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53540; 97043</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>63664; 123175</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>134999; 199460</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>209294; 289034</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>144816; 261268</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>75861; 132095</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>99299; 171978</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>219879; 311272</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>318350; 429689</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>214449; 353279</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>97936</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>58938</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>111065</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>191522</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>167018</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>171493</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>139881</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>188494</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>258767</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>211367</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>269430</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>198819</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>299559</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>450289</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>378384</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>69980; 157690</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>36242; 86330</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>78986; 154012</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>148657; 260126</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>121956; 262204</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>137991; 209473</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>103868; 185022</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>152051; 230221</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>214104; 316506</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>166325; 264784</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>225076; 329941</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>157803; 261023</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>251378; 358935</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>379896; 521571</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>309084; 474463</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>34034</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32859</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>51629</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>99388</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>93143</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>105161</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>71377</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>128538</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>170556</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>117982</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>139195</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>104236</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>180167</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>269944</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>211125</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19016; 53277</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17411; 57149</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32205; 75928</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>70618; 135075</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>57854; 158084</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>80998; 134351</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>47967; 100251</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>101855; 161751</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>137354; 204997</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>89309; 155132</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>106758; 174490</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>77058; 142694</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>144720; 219753</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>225157; 317643</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>166420; 280917</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>287554</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>149382</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>78499</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>91011</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>477586</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>189963</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>121637</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>183377</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>765140</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>339345</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>200136</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>274388</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>235662; 341738</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>100565; 228975</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>50975; 112836</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>59849; 130404</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>419100; 537601</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>150141; 233846</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>92535; 157096</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>142962; 238982</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>685312; 847371</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>281850; 432871</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>158483; 246158</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>221496; 340335</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>538.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>471.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>448761</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>284612</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>340494</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>409948</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>435453</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>828335</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>490508</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>604341</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>677490</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>704012</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1277096</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>775120</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>944835</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1087438</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>1139465</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>381108; 527673</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>226649; 367649</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>286368; 405451</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>344704; 487358</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>359351; 549971</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>751340; 909700</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>422619; 564799</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>539739; 676153</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>613190; 755456</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>623920; 814096</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1168373; 1382170</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>684137; 883898</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>861838; 1049532</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>989805; 1187789</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>1023611; 1288146</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
